--- a/timesheet/T26TimeSheet_ChungWaiMan_JUN2023.xlsx
+++ b/timesheet/T26TimeSheet_ChungWaiMan_JUN2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>Contract Ref.: GCIO 5/2 (T26)</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>0.0</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Total</t>
@@ -1976,7 +1973,7 @@
       </c>
       <c r="B29" s="55"/>
       <c r="C29" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="56">
@@ -1993,7 +1990,7 @@
       </c>
       <c r="K29" s="56"/>
       <c r="L29" s="56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M29" s="56"/>
       <c r="N29" s="56">
@@ -2038,7 +2035,7 @@
       </c>
       <c r="B31" s="55"/>
       <c r="C31" s="56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="56">
@@ -2055,7 +2052,7 @@
       </c>
       <c r="K31" s="56"/>
       <c r="L31" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M31" s="56"/>
       <c r="N31" s="56">
@@ -2193,7 +2190,7 @@
       </c>
       <c r="B36" s="55"/>
       <c r="C36" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="56">
@@ -2210,7 +2207,7 @@
       </c>
       <c r="K36" s="56"/>
       <c r="L36" s="56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M36" s="56"/>
       <c r="N36" s="56">
@@ -2255,7 +2252,7 @@
       </c>
       <c r="B38" s="55"/>
       <c r="C38" s="56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" s="56"/>
       <c r="E38" s="56">
@@ -2272,7 +2269,7 @@
       </c>
       <c r="K38" s="56"/>
       <c r="L38" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M38" s="56"/>
       <c r="N38" s="56">
@@ -2348,7 +2345,7 @@
       </c>
       <c r="B41" s="55"/>
       <c r="C41" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="56"/>
       <c r="E41" s="56">
@@ -2365,7 +2362,7 @@
       </c>
       <c r="K41" s="56"/>
       <c r="L41" s="56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M41" s="56"/>
       <c r="N41" s="56">
@@ -2379,7 +2376,7 @@
       </c>
       <c r="B42" s="55"/>
       <c r="C42" s="56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D42" s="56"/>
       <c r="E42" s="56">
@@ -2396,7 +2393,7 @@
       </c>
       <c r="K42" s="56"/>
       <c r="L42" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M42" s="56"/>
       <c r="N42" s="56">
@@ -2410,7 +2407,7 @@
       </c>
       <c r="B43" s="55"/>
       <c r="C43" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="56"/>
       <c r="E43" s="56">
@@ -2427,7 +2424,7 @@
       </c>
       <c r="K43" s="56"/>
       <c r="L43" s="56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M43" s="56"/>
       <c r="N43" s="56">
@@ -2472,7 +2469,7 @@
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" s="56"/>
       <c r="E45" s="56">
@@ -2489,7 +2486,7 @@
       </c>
       <c r="K45" s="56"/>
       <c r="L45" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M45" s="56"/>
       <c r="N45" s="56">
@@ -2622,43 +2619,43 @@
       <c r="O49" s="56"/>
     </row>
     <row r="50" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
-        <v>44</v>
+      <c r="A50" s="55">
+        <v>31</v>
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D50" s="56"/>
-      <c r="E50" s="56" t="s">
-        <v>44</v>
+      <c r="E50" s="56">
+        <v>0</v>
       </c>
       <c r="F50" s="56"/>
       <c r="G50" s="56"/>
-      <c r="H50" s="57" t="s">
-        <v>44</v>
+      <c r="H50" s="57">
+        <v>0</v>
       </c>
       <c r="I50" s="57"/>
-      <c r="J50" s="57" t="s">
-        <v>44</v>
+      <c r="J50" s="57">
+        <v>0</v>
       </c>
       <c r="K50" s="57"/>
       <c r="L50" s="57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M50" s="57"/>
-      <c r="N50" s="57" t="s">
-        <v>44</v>
+      <c r="N50" s="57">
+        <v>0</v>
       </c>
       <c r="O50" s="57"/>
     </row>
     <row r="51" ht="21.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="59"/>
       <c r="C51" s="56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="56">
@@ -2678,7 +2675,7 @@
     </row>
     <row r="52" ht="12.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -2716,13 +2713,13 @@
     </row>
     <row r="54" ht="15.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="82"/>
       <c r="C54" s="82"/>
       <c r="D54" s="83"/>
       <c r="F54" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G54" s="85"/>
       <c r="H54" s="85"/>
@@ -2736,13 +2733,13 @@
     </row>
     <row r="55" ht="15.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="88"/>
       <c r="C55" s="88"/>
       <c r="D55" s="89"/>
       <c r="F55" s="90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G55" s="90"/>
       <c r="H55" s="90"/>
@@ -2776,7 +2773,7 @@
       <c r="C57" s="88"/>
       <c r="D57" s="89"/>
       <c r="F57" s="84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G57" s="85"/>
       <c r="H57" s="85"/>
@@ -2790,7 +2787,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="94"/>
       <c r="C58" s="94"/>
@@ -2828,7 +2825,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2847,7 +2844,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="105"/>
       <c r="C61" s="105"/>
@@ -2866,10 +2863,10 @@
     </row>
     <row r="62" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="108" t="s">
         <v>55</v>
-      </c>
-      <c r="B62" s="108" t="s">
-        <v>56</v>
       </c>
       <c r="C62" s="109"/>
       <c r="D62" s="109"/>
@@ -2887,10 +2884,10 @@
     </row>
     <row r="63" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="111" t="s">
         <v>57</v>
-      </c>
-      <c r="B63" s="111" t="s">
-        <v>58</v>
       </c>
       <c r="C63" s="112"/>
       <c r="D63" s="112"/>
@@ -2942,10 +2939,10 @@
     </row>
     <row r="66" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="115" t="s">
         <v>59</v>
-      </c>
-      <c r="B66" s="115" t="s">
-        <v>60</v>
       </c>
       <c r="C66" s="115"/>
       <c r="D66" s="115"/>
@@ -2963,10 +2960,10 @@
     </row>
     <row r="67" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="111" t="s">
         <v>61</v>
-      </c>
-      <c r="B67" s="111" t="s">
-        <v>62</v>
       </c>
       <c r="C67" s="111"/>
       <c r="D67" s="111"/>
@@ -3001,10 +2998,10 @@
     </row>
     <row r="69" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="118" t="s">
         <v>63</v>
-      </c>
-      <c r="B69" s="118" t="s">
-        <v>64</v>
       </c>
       <c r="C69" s="119"/>
       <c r="D69" s="119"/>
@@ -3022,10 +3019,10 @@
     </row>
     <row r="70" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="121" t="s">
         <v>65</v>
-      </c>
-      <c r="B70" s="121" t="s">
-        <v>66</v>
       </c>
       <c r="C70" s="121"/>
       <c r="D70" s="121"/>
@@ -3077,7 +3074,7 @@
     </row>
     <row r="74" ht="12.95" customHeight="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
